--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plu3532\Documents\gebiedsindelingen\mastertabellen_swing_gebiedsniveaus\gebiedsniveaus (verplaats mij naar c-temp-gebiedsniveaus)\definities_afgeleiden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44148652-F903-414B-AAA1-9D66E484A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9650"/>
+    <workbookView xWindow="24180" yWindow="2388" windowWidth="13272" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1691,9 +1692,6 @@
     <t>ipz991</t>
   </si>
   <si>
-    <t>Politiezone onbekend</t>
-  </si>
-  <si>
     <t>Politiezone onbekend (Vlaanderen)</t>
   </si>
   <si>
@@ -1707,12 +1705,15 @@
   </si>
   <si>
     <t>PZ Deinze - Zulte - Lievegem</t>
+  </si>
+  <si>
+    <t>Buiten Vlaanderen en Brussel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1748,10 +1749,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2065,23 +2065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" t="s">
         <v>548</v>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -2107,21 +2107,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>11002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>547</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11004</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11005</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11007</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11008</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11009</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11013</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11016</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11018</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11021</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11022</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11023</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11024</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11025</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11029</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11030</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11035</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11037</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11038</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11039</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11040</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11044</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11050</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11052</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11053</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11054</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11055</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11056</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11057</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12005</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12007</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12009</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12014</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12021</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12025</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12026</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12029</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12035</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12040</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12041</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13001</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13002</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13003</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13004</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13006</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13008</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13010</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13011</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13012</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13013</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13014</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13016</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>13017</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13019</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13021</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13023</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13025</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13029</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13031</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13035</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13036</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13037</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13040</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13044</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13046</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13049</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13053</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>21001</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>21002</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>21003</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21004</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21005</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21006</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21007</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21008</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21009</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>21010</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21011</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21012</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21013</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21014</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21015</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>21016</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21017</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>21018</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>21019</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23002</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23003</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23009</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23016</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23023</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23024</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>23025</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23027</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23032</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23033</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>23038</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23039</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23044</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23045</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23047</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23050</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23052</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23060</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23062</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23064</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23077</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23081</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23086</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23088</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23094</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23096</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23097</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23098</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23099</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23100</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23101</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23102</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>23103</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23104</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>23105</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24001</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24007</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24008</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24009</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24011</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24014</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24016</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24020</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24028</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24033</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24038</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24041</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24043</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24045</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24048</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24054</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24055</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24059</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24062</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24066</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24086</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24094</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24104</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24107</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24109</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24130</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24133</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24134</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24135</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24137</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>31003</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>31004</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>31005</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>31006</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>31012</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>31022</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>31033</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>31040</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>31042</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>31043</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>32003</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>32006</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>32010</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>32011</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>32030</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>33011</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>33016</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>33021</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>33029</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>33037</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>33039</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>33040</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>33041</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>34002</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>34003</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>34009</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>34013</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>34022</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>34023</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>34025</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>34027</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>34040</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>34041</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>34042</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>34043</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>35002</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>35005</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>35006</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>35011</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>35013</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>35014</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>35029</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>36006</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>36007</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>36008</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>36010</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>36011</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>36012</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>36015</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>36019</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>37002</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>37007</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>37010</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>37011</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>37012</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>37015</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>37017</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>37018</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>37020</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>38002</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>38008</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>38014</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>38016</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>38025</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>41002</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>41011</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>41018</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>41024</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>41027</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>41034</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>41048</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>41063</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>41081</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>41082</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>42003</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>42004</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>42006</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>42008</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>42010</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>42011</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>42023</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>42025</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>42026</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>42028</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>43002</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>43005</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>43007</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>43010</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>43014</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>43018</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>44012</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>44013</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>44019</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>44020</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>44021</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>44034</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>44040</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>44043</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>44045</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>44048</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>44052</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>44064</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>44073</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>44081</v>
       </c>
@@ -5688,10 +5688,10 @@
         <v>445</v>
       </c>
       <c r="D258" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44083</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>445</v>
       </c>
       <c r="D259" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>44084</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44085</v>
       </c>
@@ -5730,10 +5730,10 @@
         <v>445</v>
       </c>
       <c r="D261" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>45035</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>45041</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>45059</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>45060</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>45061</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>45062</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>45063</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>45064</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>45065</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>45068</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>46003</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>46013</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>46014</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>46020</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>46021</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>46024</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>46025</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>71002</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>71004</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>71011</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>71016</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>71017</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>71020</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>71022</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>71024</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>71034</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>71037</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>71045</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>71053</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>71057</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>71066</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>71067</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>71069</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>71070</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>72003</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>72004</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>72018</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>72020</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>72021</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>72030</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>72037</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>72038</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>72039</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>72041</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>72042</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>72043</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>73001</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>73006</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>73009</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>73022</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>73028</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>73032</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>73040</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>73042</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>73066</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>73083</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>73098</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>73107</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>73109</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>99999</v>
       </c>
@@ -6570,10 +6570,10 @@
         <v>552</v>
       </c>
       <c r="D321" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>99991</v>
       </c>
@@ -6584,10 +6584,10 @@
         <v>553</v>
       </c>
       <c r="D322" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>99992</v>
       </c>
@@ -6595,14 +6595,14 @@
         <v>551</v>
       </c>
       <c r="C323" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D323" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D323"/>
+  <autoFilter ref="A1:D323" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44148652-F903-414B-AAA1-9D66E484A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22454A60-F0EF-4499-AA1F-9E5D2FF2D4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="2388" windowWidth="13272" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="556">
   <si>
     <t>politiezone</t>
   </si>
@@ -216,9 +216,6 @@
     <t>ipz14</t>
   </si>
   <si>
-    <t>PZ Klein-Brabant</t>
-  </si>
-  <si>
     <t>Duffel</t>
   </si>
   <si>
@@ -243,12 +240,6 @@
     <t>Mechelen</t>
   </si>
   <si>
-    <t>ipz17</t>
-  </si>
-  <si>
-    <t>PZ Mechelen - Willebroek</t>
-  </si>
-  <si>
     <t>Nijlen</t>
   </si>
   <si>
@@ -747,9 +738,6 @@
     <t>ipz52</t>
   </si>
   <si>
-    <t>PZ Tienen - Hoegaarden</t>
-  </si>
-  <si>
     <t>Holsbeek</t>
   </si>
   <si>
@@ -768,12 +756,6 @@
     <t>Landen</t>
   </si>
   <si>
-    <t>ipz53</t>
-  </si>
-  <si>
-    <t>PZ Lan</t>
-  </si>
-  <si>
     <t>Leuven</t>
   </si>
   <si>
@@ -1708,6 +1690,12 @@
   </si>
   <si>
     <t>Buiten Vlaanderen en Brussel</t>
+  </si>
+  <si>
+    <t>PZ Getevallei</t>
+  </si>
+  <si>
+    <t>PZ Rivierenland</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="D321" sqref="D321"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,10 +2069,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2115,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2540,7 @@
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2548,7 @@
         <v>12009</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -2574,13 +2562,13 @@
         <v>12014</v>
       </c>
       <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,13 +2576,13 @@
         <v>12021</v>
       </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,13 +2590,13 @@
         <v>12025</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2604,7 @@
         <v>12026</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>55</v>
@@ -2630,7 +2618,7 @@
         <v>12029</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
@@ -2644,7 +2632,7 @@
         <v>12035</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>58</v>
@@ -2658,13 +2646,13 @@
         <v>12040</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,13 +2660,13 @@
         <v>12041</v>
       </c>
       <c r="B43" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,13 +2674,13 @@
         <v>13001</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,13 +2688,13 @@
         <v>13002</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,13 +2702,13 @@
         <v>13003</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,13 +2716,13 @@
         <v>13004</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,13 +2730,13 @@
         <v>13006</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,13 +2744,13 @@
         <v>13008</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,13 +2758,13 @@
         <v>13010</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,13 +2772,13 @@
         <v>13011</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,13 +2786,13 @@
         <v>13012</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,13 +2800,13 @@
         <v>13013</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,13 +2814,13 @@
         <v>13014</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,13 +2828,13 @@
         <v>13016</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,13 +2842,13 @@
         <v>13017</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,13 +2856,13 @@
         <v>13019</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,13 +2870,13 @@
         <v>13021</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,13 +2884,13 @@
         <v>13023</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,13 +2898,13 @@
         <v>13025</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,13 +2912,13 @@
         <v>13029</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,13 +2926,13 @@
         <v>13031</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,13 +2940,13 @@
         <v>13035</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,13 +2954,13 @@
         <v>13036</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,13 +2968,13 @@
         <v>13037</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,13 +2982,13 @@
         <v>13040</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,13 +2996,13 @@
         <v>13044</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,13 +3010,13 @@
         <v>13046</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,13 +3024,13 @@
         <v>13049</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,13 +3038,13 @@
         <v>13053</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,13 +3052,13 @@
         <v>21001</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,13 +3066,13 @@
         <v>21002</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,13 +3080,13 @@
         <v>21003</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,13 +3094,13 @@
         <v>21004</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,13 +3108,13 @@
         <v>21005</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,13 +3122,13 @@
         <v>21006</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,13 +3136,13 @@
         <v>21007</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,13 +3150,13 @@
         <v>21008</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,13 +3164,13 @@
         <v>21009</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,13 +3178,13 @@
         <v>21010</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,13 +3192,13 @@
         <v>21011</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,13 +3206,13 @@
         <v>21012</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,13 +3220,13 @@
         <v>21013</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,13 +3234,13 @@
         <v>21014</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,13 +3248,13 @@
         <v>21015</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,13 +3262,13 @@
         <v>21016</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,13 +3276,13 @@
         <v>21017</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,13 +3290,13 @@
         <v>21018</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,13 +3304,13 @@
         <v>21019</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,7 +3318,7 @@
         <v>23002</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -3344,13 +3332,13 @@
         <v>23003</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,13 +3346,13 @@
         <v>23009</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,13 +3360,13 @@
         <v>23016</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,13 +3374,13 @@
         <v>23023</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,13 +3388,13 @@
         <v>23024</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,13 +3402,13 @@
         <v>23025</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,13 +3416,13 @@
         <v>23027</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,13 +3430,13 @@
         <v>23032</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,13 +3444,13 @@
         <v>23033</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,13 +3458,13 @@
         <v>23038</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,13 +3472,13 @@
         <v>23039</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,13 +3486,13 @@
         <v>23044</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3512,13 +3500,13 @@
         <v>23045</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,13 +3514,13 @@
         <v>23047</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,13 +3528,13 @@
         <v>23050</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,7 +3542,7 @@
         <v>23052</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -3568,7 +3556,7 @@
         <v>23060</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -3582,13 +3570,13 @@
         <v>23062</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,13 +3584,13 @@
         <v>23064</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,13 +3598,13 @@
         <v>23077</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,13 +3612,13 @@
         <v>23081</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,13 +3626,13 @@
         <v>23086</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,13 +3640,13 @@
         <v>23088</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,13 +3654,13 @@
         <v>23094</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,13 +3668,13 @@
         <v>23096</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,13 +3682,13 @@
         <v>23097</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,13 +3696,13 @@
         <v>23098</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,13 +3710,13 @@
         <v>23099</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,13 +3724,13 @@
         <v>23100</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,13 +3738,13 @@
         <v>23101</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,7 +3752,7 @@
         <v>23102</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -3778,13 +3766,13 @@
         <v>23103</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,13 +3780,13 @@
         <v>23104</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,13 +3794,13 @@
         <v>23105</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,13 +3808,13 @@
         <v>24001</v>
       </c>
       <c r="B125" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C125" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,13 +3822,13 @@
         <v>24007</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,13 +3836,13 @@
         <v>24008</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,13 +3850,13 @@
         <v>24009</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,13 +3864,13 @@
         <v>24011</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,13 +3878,13 @@
         <v>24014</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C130" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,13 +3892,13 @@
         <v>24016</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,13 +3906,13 @@
         <v>24020</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,13 +3920,13 @@
         <v>24028</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,13 +3934,13 @@
         <v>24033</v>
       </c>
       <c r="B134" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D134" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,13 +3948,13 @@
         <v>24038</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D135" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,13 +3962,13 @@
         <v>24041</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>239</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,13 +3976,13 @@
         <v>24043</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D137" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4002,13 +3990,13 @@
         <v>24045</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,13 +4004,13 @@
         <v>24048</v>
       </c>
       <c r="B139" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D139" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,13 +4018,13 @@
         <v>24054</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,13 +4032,13 @@
         <v>24055</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,13 +4046,13 @@
         <v>24059</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>247</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,13 +4060,13 @@
         <v>24062</v>
       </c>
       <c r="B143" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D143" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,13 +4074,13 @@
         <v>24066</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D144" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,13 +4088,13 @@
         <v>24086</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C145" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,13 +4102,13 @@
         <v>24094</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D146" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,13 +4116,13 @@
         <v>24104</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C147" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D147" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,13 +4130,13 @@
         <v>24107</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D148" t="s">
-        <v>239</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,13 +4144,13 @@
         <v>24109</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D149" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,13 +4158,13 @@
         <v>24130</v>
       </c>
       <c r="B150" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,13 +4172,13 @@
         <v>24133</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D151" t="s">
-        <v>247</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,13 +4186,13 @@
         <v>24134</v>
       </c>
       <c r="B152" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D152" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,13 +4200,13 @@
         <v>24135</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D153" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,13 +4214,13 @@
         <v>24137</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C154" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,13 +4228,13 @@
         <v>31003</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C155" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D155" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,13 +4242,13 @@
         <v>31004</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C156" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,13 +4256,13 @@
         <v>31005</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D157" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,13 +4270,13 @@
         <v>31006</v>
       </c>
       <c r="B158" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C158" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D158" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,13 +4284,13 @@
         <v>31012</v>
       </c>
       <c r="B159" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C159" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,13 +4298,13 @@
         <v>31022</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C160" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D160" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,13 +4312,13 @@
         <v>31033</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,13 +4326,13 @@
         <v>31040</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C162" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D162" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,13 +4340,13 @@
         <v>31042</v>
       </c>
       <c r="B163" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C163" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,13 +4354,13 @@
         <v>31043</v>
       </c>
       <c r="B164" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D164" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,13 +4368,13 @@
         <v>32003</v>
       </c>
       <c r="B165" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D165" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,13 +4382,13 @@
         <v>32006</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C166" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,13 +4396,13 @@
         <v>32010</v>
       </c>
       <c r="B167" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D167" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,13 +4410,13 @@
         <v>32011</v>
       </c>
       <c r="B168" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D168" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,13 +4424,13 @@
         <v>32030</v>
       </c>
       <c r="B169" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D169" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,13 +4438,13 @@
         <v>33011</v>
       </c>
       <c r="B170" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D170" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,13 +4452,13 @@
         <v>33016</v>
       </c>
       <c r="B171" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C171" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D171" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,13 +4466,13 @@
         <v>33021</v>
       </c>
       <c r="B172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C172" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D172" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,13 +4480,13 @@
         <v>33029</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C173" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D173" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,13 +4494,13 @@
         <v>33037</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D174" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,13 +4508,13 @@
         <v>33039</v>
       </c>
       <c r="B175" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C175" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D175" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,13 +4522,13 @@
         <v>33040</v>
       </c>
       <c r="B176" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C176" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D176" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,13 +4536,13 @@
         <v>33041</v>
       </c>
       <c r="B177" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C177" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D177" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4562,13 +4550,13 @@
         <v>34002</v>
       </c>
       <c r="B178" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C178" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D178" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,13 +4564,13 @@
         <v>34003</v>
       </c>
       <c r="B179" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D179" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,13 +4578,13 @@
         <v>34009</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C180" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D180" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,13 +4592,13 @@
         <v>34013</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C181" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D181" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,13 +4606,13 @@
         <v>34022</v>
       </c>
       <c r="B182" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C182" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D182" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,13 +4620,13 @@
         <v>34023</v>
       </c>
       <c r="B183" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C183" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D183" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,13 +4634,13 @@
         <v>34025</v>
       </c>
       <c r="B184" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C184" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D184" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,13 +4648,13 @@
         <v>34027</v>
       </c>
       <c r="B185" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C185" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D185" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,13 +4662,13 @@
         <v>34040</v>
       </c>
       <c r="B186" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C186" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D186" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,13 +4676,13 @@
         <v>34041</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C187" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D187" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,13 +4690,13 @@
         <v>34042</v>
       </c>
       <c r="B188" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C188" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,13 +4704,13 @@
         <v>34043</v>
       </c>
       <c r="B189" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C189" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D189" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,13 +4718,13 @@
         <v>35002</v>
       </c>
       <c r="B190" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C190" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D190" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,13 +4732,13 @@
         <v>35005</v>
       </c>
       <c r="B191" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C191" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D191" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,13 +4746,13 @@
         <v>35006</v>
       </c>
       <c r="B192" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C192" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,13 +4760,13 @@
         <v>35011</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C193" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4786,13 +4774,13 @@
         <v>35013</v>
       </c>
       <c r="B194" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C194" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D194" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,13 +4788,13 @@
         <v>35014</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C195" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D195" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,13 +4802,13 @@
         <v>35029</v>
       </c>
       <c r="B196" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C196" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D196" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,13 +4816,13 @@
         <v>36006</v>
       </c>
       <c r="B197" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C197" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D197" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,13 +4830,13 @@
         <v>36007</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C198" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D198" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4856,13 +4844,13 @@
         <v>36008</v>
       </c>
       <c r="B199" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C199" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D199" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,13 +4858,13 @@
         <v>36010</v>
       </c>
       <c r="B200" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C200" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,13 +4872,13 @@
         <v>36011</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C201" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D201" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,13 +4886,13 @@
         <v>36012</v>
       </c>
       <c r="B202" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D202" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,13 +4900,13 @@
         <v>36015</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C203" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D203" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,13 +4914,13 @@
         <v>36019</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D204" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,13 +4928,13 @@
         <v>37002</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C205" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D205" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,13 +4942,13 @@
         <v>37007</v>
       </c>
       <c r="B206" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C206" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D206" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,13 +4956,13 @@
         <v>37010</v>
       </c>
       <c r="B207" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C207" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D207" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,13 +4970,13 @@
         <v>37011</v>
       </c>
       <c r="B208" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C208" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D208" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,13 +4984,13 @@
         <v>37012</v>
       </c>
       <c r="B209" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C209" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D209" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,13 +4998,13 @@
         <v>37015</v>
       </c>
       <c r="B210" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C210" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D210" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,13 +5012,13 @@
         <v>37017</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C211" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D211" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,13 +5026,13 @@
         <v>37018</v>
       </c>
       <c r="B212" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C212" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D212" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,13 +5040,13 @@
         <v>37020</v>
       </c>
       <c r="B213" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C213" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D213" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,13 +5054,13 @@
         <v>38002</v>
       </c>
       <c r="B214" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D214" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,13 +5068,13 @@
         <v>38008</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C215" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D215" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5094,13 +5082,13 @@
         <v>38014</v>
       </c>
       <c r="B216" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C216" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D216" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5108,13 +5096,13 @@
         <v>38016</v>
       </c>
       <c r="B217" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C217" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D217" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,13 +5110,13 @@
         <v>38025</v>
       </c>
       <c r="B218" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C218" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D218" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,13 +5124,13 @@
         <v>41002</v>
       </c>
       <c r="B219" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C219" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,13 +5138,13 @@
         <v>41011</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C220" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D220" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,13 +5152,13 @@
         <v>41018</v>
       </c>
       <c r="B221" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C221" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D221" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,13 +5166,13 @@
         <v>41024</v>
       </c>
       <c r="B222" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C222" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D222" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,13 +5180,13 @@
         <v>41027</v>
       </c>
       <c r="B223" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C223" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D223" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,13 +5194,13 @@
         <v>41034</v>
       </c>
       <c r="B224" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C224" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D224" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,13 +5208,13 @@
         <v>41048</v>
       </c>
       <c r="B225" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C225" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D225" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,13 +5222,13 @@
         <v>41063</v>
       </c>
       <c r="B226" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C226" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D226" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,13 +5236,13 @@
         <v>41081</v>
       </c>
       <c r="B227" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C227" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D227" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,13 +5250,13 @@
         <v>41082</v>
       </c>
       <c r="B228" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C228" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D228" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5276,13 +5264,13 @@
         <v>42003</v>
       </c>
       <c r="B229" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C229" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D229" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5290,13 +5278,13 @@
         <v>42004</v>
       </c>
       <c r="B230" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C230" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D230" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,13 +5292,13 @@
         <v>42006</v>
       </c>
       <c r="B231" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C231" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D231" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5318,13 +5306,13 @@
         <v>42008</v>
       </c>
       <c r="B232" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C232" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D232" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,13 +5320,13 @@
         <v>42010</v>
       </c>
       <c r="B233" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C233" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D233" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5346,13 +5334,13 @@
         <v>42011</v>
       </c>
       <c r="B234" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C234" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D234" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,13 +5348,13 @@
         <v>42023</v>
       </c>
       <c r="B235" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C235" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D235" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5374,13 +5362,13 @@
         <v>42025</v>
       </c>
       <c r="B236" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C236" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D236" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,13 +5376,13 @@
         <v>42026</v>
       </c>
       <c r="B237" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D237" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,13 +5390,13 @@
         <v>42028</v>
       </c>
       <c r="B238" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C238" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D238" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,13 +5404,13 @@
         <v>43002</v>
       </c>
       <c r="B239" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C239" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D239" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,13 +5418,13 @@
         <v>43005</v>
       </c>
       <c r="B240" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C240" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D240" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5444,13 +5432,13 @@
         <v>43007</v>
       </c>
       <c r="B241" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C241" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D241" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,13 +5446,13 @@
         <v>43010</v>
       </c>
       <c r="B242" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C242" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D242" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,13 +5460,13 @@
         <v>43014</v>
       </c>
       <c r="B243" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C243" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D243" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5486,13 +5474,13 @@
         <v>43018</v>
       </c>
       <c r="B244" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C244" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D244" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5500,13 +5488,13 @@
         <v>44012</v>
       </c>
       <c r="B245" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C245" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D245" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,13 +5502,13 @@
         <v>44013</v>
       </c>
       <c r="B246" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C246" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D246" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,13 +5516,13 @@
         <v>44019</v>
       </c>
       <c r="B247" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C247" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D247" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,13 +5530,13 @@
         <v>44020</v>
       </c>
       <c r="B248" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C248" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D248" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,13 +5544,13 @@
         <v>44021</v>
       </c>
       <c r="B249" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C249" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D249" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,13 +5558,13 @@
         <v>44034</v>
       </c>
       <c r="B250" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C250" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D250" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,13 +5572,13 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C251" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D251" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,13 +5586,13 @@
         <v>44043</v>
       </c>
       <c r="B252" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C252" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D252" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,13 +5600,13 @@
         <v>44045</v>
       </c>
       <c r="B253" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C253" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D253" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,13 +5614,13 @@
         <v>44048</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C254" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D254" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,13 +5628,13 @@
         <v>44052</v>
       </c>
       <c r="B255" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C255" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D255" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,13 +5642,13 @@
         <v>44064</v>
       </c>
       <c r="B256" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C256" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D256" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,13 +5656,13 @@
         <v>44073</v>
       </c>
       <c r="B257" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C257" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D257" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,13 +5670,13 @@
         <v>44081</v>
       </c>
       <c r="B258" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C258" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D258" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,13 +5684,13 @@
         <v>44083</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D259" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,13 +5698,13 @@
         <v>44084</v>
       </c>
       <c r="B260" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C260" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D260" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5724,13 +5712,13 @@
         <v>44085</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D261" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,13 +5726,13 @@
         <v>45035</v>
       </c>
       <c r="B262" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C262" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D262" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,13 +5740,13 @@
         <v>45041</v>
       </c>
       <c r="B263" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C263" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D263" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,13 +5754,13 @@
         <v>45059</v>
       </c>
       <c r="B264" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C264" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D264" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5780,13 +5768,13 @@
         <v>45060</v>
       </c>
       <c r="B265" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C265" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D265" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,13 +5782,13 @@
         <v>45061</v>
       </c>
       <c r="B266" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C266" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D266" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,13 +5796,13 @@
         <v>45062</v>
       </c>
       <c r="B267" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C267" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D267" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5822,13 +5810,13 @@
         <v>45063</v>
       </c>
       <c r="B268" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C268" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D268" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,13 +5824,13 @@
         <v>45064</v>
       </c>
       <c r="B269" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C269" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D269" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,13 +5838,13 @@
         <v>45065</v>
       </c>
       <c r="B270" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C270" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D270" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,13 +5852,13 @@
         <v>45068</v>
       </c>
       <c r="B271" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C271" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D271" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,13 +5866,13 @@
         <v>46003</v>
       </c>
       <c r="B272" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C272" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D272" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,13 +5880,13 @@
         <v>46013</v>
       </c>
       <c r="B273" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C273" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D273" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,13 +5894,13 @@
         <v>46014</v>
       </c>
       <c r="B274" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C274" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D274" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,13 +5908,13 @@
         <v>46020</v>
       </c>
       <c r="B275" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C275" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D275" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,13 +5922,13 @@
         <v>46021</v>
       </c>
       <c r="B276" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C276" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D276" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,13 +5936,13 @@
         <v>46024</v>
       </c>
       <c r="B277" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C277" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D277" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5962,13 +5950,13 @@
         <v>46025</v>
       </c>
       <c r="B278" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C278" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D278" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,13 +5964,13 @@
         <v>71002</v>
       </c>
       <c r="B279" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C279" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D279" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,13 +5978,13 @@
         <v>71004</v>
       </c>
       <c r="B280" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C280" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D280" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,13 +5992,13 @@
         <v>71011</v>
       </c>
       <c r="B281" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C281" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D281" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,13 +6006,13 @@
         <v>71016</v>
       </c>
       <c r="B282" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C282" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D282" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,13 +6020,13 @@
         <v>71017</v>
       </c>
       <c r="B283" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C283" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D283" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,13 +6034,13 @@
         <v>71020</v>
       </c>
       <c r="B284" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C284" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D284" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,13 +6048,13 @@
         <v>71022</v>
       </c>
       <c r="B285" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C285" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D285" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,13 +6062,13 @@
         <v>71024</v>
       </c>
       <c r="B286" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C286" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D286" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,13 +6076,13 @@
         <v>71034</v>
       </c>
       <c r="B287" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C287" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D287" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,13 +6090,13 @@
         <v>71037</v>
       </c>
       <c r="B288" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C288" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D288" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6116,13 +6104,13 @@
         <v>71045</v>
       </c>
       <c r="B289" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C289" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D289" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,13 +6118,13 @@
         <v>71053</v>
       </c>
       <c r="B290" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C290" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D290" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,13 +6132,13 @@
         <v>71057</v>
       </c>
       <c r="B291" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C291" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D291" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,13 +6146,13 @@
         <v>71066</v>
       </c>
       <c r="B292" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C292" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D292" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6172,13 +6160,13 @@
         <v>71067</v>
       </c>
       <c r="B293" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C293" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D293" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,13 +6174,13 @@
         <v>71069</v>
       </c>
       <c r="B294" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C294" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D294" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,13 +6188,13 @@
         <v>71070</v>
       </c>
       <c r="B295" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C295" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D295" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,13 +6202,13 @@
         <v>72003</v>
       </c>
       <c r="B296" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C296" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D296" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,13 +6216,13 @@
         <v>72004</v>
       </c>
       <c r="B297" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C297" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D297" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,13 +6230,13 @@
         <v>72018</v>
       </c>
       <c r="B298" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C298" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D298" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,13 +6244,13 @@
         <v>72020</v>
       </c>
       <c r="B299" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C299" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D299" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,13 +6258,13 @@
         <v>72021</v>
       </c>
       <c r="B300" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C300" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D300" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,13 +6272,13 @@
         <v>72030</v>
       </c>
       <c r="B301" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C301" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D301" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,13 +6286,13 @@
         <v>72037</v>
       </c>
       <c r="B302" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C302" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D302" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,13 +6300,13 @@
         <v>72038</v>
       </c>
       <c r="B303" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C303" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D303" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,13 +6314,13 @@
         <v>72039</v>
       </c>
       <c r="B304" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C304" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D304" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,13 +6328,13 @@
         <v>72041</v>
       </c>
       <c r="B305" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C305" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D305" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,13 +6342,13 @@
         <v>72042</v>
       </c>
       <c r="B306" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C306" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D306" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,13 +6356,13 @@
         <v>72043</v>
       </c>
       <c r="B307" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C307" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D307" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,13 +6370,13 @@
         <v>73001</v>
       </c>
       <c r="B308" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C308" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D308" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,13 +6384,13 @@
         <v>73006</v>
       </c>
       <c r="B309" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C309" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D309" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,13 +6398,13 @@
         <v>73009</v>
       </c>
       <c r="B310" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C310" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D310" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6424,13 +6412,13 @@
         <v>73022</v>
       </c>
       <c r="B311" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C311" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D311" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,13 +6426,13 @@
         <v>73028</v>
       </c>
       <c r="B312" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C312" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D312" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,13 +6440,13 @@
         <v>73032</v>
       </c>
       <c r="B313" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C313" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D313" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,13 +6454,13 @@
         <v>73040</v>
       </c>
       <c r="B314" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C314" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D314" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,13 +6468,13 @@
         <v>73042</v>
       </c>
       <c r="B315" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C315" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D315" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6494,13 +6482,13 @@
         <v>73066</v>
       </c>
       <c r="B316" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C316" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D316" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,13 +6496,13 @@
         <v>73083</v>
       </c>
       <c r="B317" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C317" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D317" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,13 +6510,13 @@
         <v>73098</v>
       </c>
       <c r="B318" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C318" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D318" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,13 +6524,13 @@
         <v>73107</v>
       </c>
       <c r="B319" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C319" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D319" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,13 +6538,13 @@
         <v>73109</v>
       </c>
       <c r="B320" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C320" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D320" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,13 +6552,13 @@
         <v>99999</v>
       </c>
       <c r="B321" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C321" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D321" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6578,13 +6566,13 @@
         <v>99991</v>
       </c>
       <c r="B322" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C322" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D322" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,13 +6580,13 @@
         <v>99992</v>
       </c>
       <c r="B323" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C323" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D323" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22454A60-F0EF-4499-AA1F-9E5D2FF2D4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96378E7E-8273-4C15-B696-99D72FA8860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32520" yWindow="-1845" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="559">
   <si>
     <t>politiezone</t>
   </si>
@@ -1696,6 +1696,15 @@
   </si>
   <si>
     <t>PZ Rivierenland</t>
+  </si>
+  <si>
+    <t>niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>ipz993</t>
+  </si>
+  <si>
+    <t>Politiezone onbekend</t>
   </si>
 </sst>
 </file>
@@ -2054,20 +2063,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>551</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11004</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11005</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11007</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11008</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11009</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11013</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11016</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11018</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11021</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11022</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11023</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11024</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11025</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11029</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11030</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11035</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11037</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11038</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11039</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11040</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11044</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11050</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11052</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11053</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11054</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11055</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11056</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11057</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12005</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12007</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12009</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12014</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12021</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12025</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12026</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12029</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12035</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12040</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12041</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13001</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13002</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13003</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13004</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13006</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13008</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13010</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13011</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13012</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13013</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13014</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13016</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13017</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13019</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13021</v>
       </c>
@@ -2879,7 +2888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13023</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13025</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13029</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13031</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13035</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13036</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13037</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13040</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13044</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13046</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13049</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13053</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>21001</v>
       </c>
@@ -3061,7 +3070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>21002</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>21003</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>21004</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>21005</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>21006</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>21007</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>21008</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>21009</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>21010</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>21011</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21012</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>21013</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>21014</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>21015</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>21016</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>21017</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>21018</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>21019</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>23002</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23003</v>
       </c>
@@ -3341,7 +3350,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>23009</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23016</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>23023</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>23024</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>23025</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>23027</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>23032</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>23033</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>23038</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23039</v>
       </c>
@@ -3481,7 +3490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>23044</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>23045</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>23047</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>23050</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>23052</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>23060</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>23062</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>23064</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>23077</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>23081</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>23086</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>23088</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>23094</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>23096</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>23097</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>23098</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>23099</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>23100</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>23101</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>23102</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>23103</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>23104</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>23105</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24001</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24007</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24008</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>24009</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24011</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>24014</v>
       </c>
@@ -3887,7 +3896,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>24016</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>24020</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>24028</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>24033</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>24038</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>24041</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>24043</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>24045</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>24048</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>24054</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>24055</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>24059</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>24062</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>24066</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>24086</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>24094</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>24104</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>24107</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>24109</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>24130</v>
       </c>
@@ -4167,7 +4176,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>24133</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>24134</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>24135</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>24137</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>31003</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>31004</v>
       </c>
@@ -4251,7 +4260,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>31005</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>31006</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>31012</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>31022</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>31033</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>31040</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>31042</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>31043</v>
       </c>
@@ -4363,7 +4372,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>32003</v>
       </c>
@@ -4377,7 +4386,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>32006</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>32010</v>
       </c>
@@ -4405,7 +4414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>32011</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>32030</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>33011</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>33016</v>
       </c>
@@ -4461,7 +4470,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>33021</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>33029</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>33037</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>33039</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>33040</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>33041</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>34002</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>34003</v>
       </c>
@@ -4573,7 +4582,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>34009</v>
       </c>
@@ -4587,7 +4596,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>34013</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>34022</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>34023</v>
       </c>
@@ -4629,7 +4638,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>34025</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>34027</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>34040</v>
       </c>
@@ -4671,7 +4680,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>34041</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>34042</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>34043</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>35002</v>
       </c>
@@ -4727,7 +4736,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>35005</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>35006</v>
       </c>
@@ -4755,7 +4764,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>35011</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>35013</v>
       </c>
@@ -4783,7 +4792,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>35014</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>35029</v>
       </c>
@@ -4811,7 +4820,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>36006</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>36007</v>
       </c>
@@ -4839,7 +4848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>36008</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>36010</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>36011</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>36012</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>36015</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>36019</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>37002</v>
       </c>
@@ -4937,7 +4946,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>37007</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>37010</v>
       </c>
@@ -4965,7 +4974,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>37011</v>
       </c>
@@ -4979,7 +4988,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>37012</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>37015</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>37017</v>
       </c>
@@ -5021,7 +5030,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>37018</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>37020</v>
       </c>
@@ -5049,7 +5058,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>38002</v>
       </c>
@@ -5063,7 +5072,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>38008</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>38014</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>38016</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>38025</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>41002</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>41011</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>41018</v>
       </c>
@@ -5161,7 +5170,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>41024</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>41027</v>
       </c>
@@ -5189,7 +5198,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>41034</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>41048</v>
       </c>
@@ -5217,7 +5226,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>41063</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>41081</v>
       </c>
@@ -5245,7 +5254,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>41082</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>42003</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>42004</v>
       </c>
@@ -5287,7 +5296,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>42006</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>42008</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>42010</v>
       </c>
@@ -5329,7 +5338,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>42011</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>42023</v>
       </c>
@@ -5357,7 +5366,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>42025</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>42026</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>42028</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>43002</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>43005</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>43007</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>43010</v>
       </c>
@@ -5455,7 +5464,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>43014</v>
       </c>
@@ -5469,7 +5478,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>43018</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>44012</v>
       </c>
@@ -5497,7 +5506,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>44013</v>
       </c>
@@ -5511,7 +5520,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>44019</v>
       </c>
@@ -5525,7 +5534,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>44020</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>44021</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>44034</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>44040</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>44043</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>44045</v>
       </c>
@@ -5609,7 +5618,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>44048</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>44052</v>
       </c>
@@ -5637,7 +5646,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>44064</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>44073</v>
       </c>
@@ -5665,7 +5674,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>44081</v>
       </c>
@@ -5679,7 +5688,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44083</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>44084</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44085</v>
       </c>
@@ -5721,7 +5730,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>45035</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>45041</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>45059</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>45060</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>45061</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>45062</v>
       </c>
@@ -5805,7 +5814,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>45063</v>
       </c>
@@ -5819,7 +5828,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>45064</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>45065</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>45068</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>46003</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>46013</v>
       </c>
@@ -5889,7 +5898,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>46014</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>46020</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>46021</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>46024</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>46025</v>
       </c>
@@ -5959,7 +5968,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>71002</v>
       </c>
@@ -5973,7 +5982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>71004</v>
       </c>
@@ -5987,7 +5996,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>71011</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>71016</v>
       </c>
@@ -6015,7 +6024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>71017</v>
       </c>
@@ -6029,7 +6038,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>71020</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>71022</v>
       </c>
@@ -6057,7 +6066,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>71024</v>
       </c>
@@ -6071,7 +6080,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>71034</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>71037</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>71045</v>
       </c>
@@ -6113,7 +6122,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>71053</v>
       </c>
@@ -6127,7 +6136,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>71057</v>
       </c>
@@ -6141,7 +6150,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>71066</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>71067</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>71069</v>
       </c>
@@ -6183,7 +6192,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>71070</v>
       </c>
@@ -6197,7 +6206,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>72003</v>
       </c>
@@ -6211,7 +6220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>72004</v>
       </c>
@@ -6225,7 +6234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>72018</v>
       </c>
@@ -6239,7 +6248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>72020</v>
       </c>
@@ -6253,7 +6262,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>72021</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>72030</v>
       </c>
@@ -6281,7 +6290,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>72037</v>
       </c>
@@ -6295,7 +6304,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>72038</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>72039</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>72041</v>
       </c>
@@ -6337,7 +6346,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>72042</v>
       </c>
@@ -6351,7 +6360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>72043</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>73001</v>
       </c>
@@ -6379,7 +6388,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>73006</v>
       </c>
@@ -6393,7 +6402,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>73009</v>
       </c>
@@ -6407,7 +6416,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>73022</v>
       </c>
@@ -6421,7 +6430,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>73028</v>
       </c>
@@ -6435,7 +6444,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>73032</v>
       </c>
@@ -6449,7 +6458,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>73040</v>
       </c>
@@ -6463,7 +6472,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>73042</v>
       </c>
@@ -6477,7 +6486,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>73066</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>73083</v>
       </c>
@@ -6505,7 +6514,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>73098</v>
       </c>
@@ -6519,7 +6528,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>73107</v>
       </c>
@@ -6533,7 +6542,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>73109</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>99999</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>99991</v>
       </c>
@@ -6575,7 +6584,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>99992</v>
       </c>
@@ -6587,6 +6596,20 @@
       </c>
       <c r="D323" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>99993</v>
+      </c>
+      <c r="B324" t="s">
+        <v>556</v>
+      </c>
+      <c r="C324" t="s">
+        <v>557</v>
+      </c>
+      <c r="D324" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96378E7E-8273-4C15-B696-99D72FA8860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8251F46-1ED0-4419-968C-5DC86518F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="-1845" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="557">
   <si>
     <t>politiezone</t>
   </si>
@@ -1254,12 +1254,6 @@
     <t>Maldegem</t>
   </si>
   <si>
-    <t>ipz87</t>
-  </si>
-  <si>
-    <t>PZ Maldegem</t>
-  </si>
-  <si>
     <t>Sint-Laureins</t>
   </si>
   <si>
@@ -1332,9 +1326,6 @@
     <t>ipz89</t>
   </si>
   <si>
-    <t>PZ Aalter - Knesselare</t>
-  </si>
-  <si>
     <t>Oosterzele</t>
   </si>
   <si>
@@ -1705,6 +1696,9 @@
   </si>
   <si>
     <t>Politiezone onbekend</t>
+  </si>
+  <si>
+    <t>PZ Aalter/Maldegem</t>
   </si>
 </sst>
 </file>
@@ -2065,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D242" sqref="C242:D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,10 +2072,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2112,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2549,7 +2543,7 @@
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,7 +2599,7 @@
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2661,7 +2655,7 @@
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,13 +2663,13 @@
         <v>12041</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3977,7 +3971,7 @@
         <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,7 +4055,7 @@
         <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4145,7 +4139,7 @@
         <v>235</v>
       </c>
       <c r="D148" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4173,7 +4167,7 @@
         <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4187,7 +4181,7 @@
         <v>235</v>
       </c>
       <c r="D151" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -5458,10 +5452,10 @@
         <v>407</v>
       </c>
       <c r="C242" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D242" t="s">
-        <v>409</v>
+        <v>556</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5469,7 +5463,7 @@
         <v>43014</v>
       </c>
       <c r="B243" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C243" t="s">
         <v>404</v>
@@ -5483,13 +5477,13 @@
         <v>43018</v>
       </c>
       <c r="B244" t="s">
+        <v>409</v>
+      </c>
+      <c r="C244" t="s">
+        <v>410</v>
+      </c>
+      <c r="D244" t="s">
         <v>411</v>
-      </c>
-      <c r="C244" t="s">
-        <v>412</v>
-      </c>
-      <c r="D244" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5497,13 +5491,13 @@
         <v>44012</v>
       </c>
       <c r="B245" t="s">
+        <v>414</v>
+      </c>
+      <c r="C245" t="s">
+        <v>415</v>
+      </c>
+      <c r="D245" t="s">
         <v>416</v>
-      </c>
-      <c r="C245" t="s">
-        <v>417</v>
-      </c>
-      <c r="D245" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5511,13 +5505,13 @@
         <v>44013</v>
       </c>
       <c r="B246" t="s">
+        <v>417</v>
+      </c>
+      <c r="C246" t="s">
+        <v>418</v>
+      </c>
+      <c r="D246" t="s">
         <v>419</v>
-      </c>
-      <c r="C246" t="s">
-        <v>420</v>
-      </c>
-      <c r="D246" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5525,7 +5519,7 @@
         <v>44019</v>
       </c>
       <c r="B247" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C247" t="s">
         <v>401</v>
@@ -5539,13 +5533,13 @@
         <v>44020</v>
       </c>
       <c r="B248" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C248" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5553,13 +5547,13 @@
         <v>44021</v>
       </c>
       <c r="B249" t="s">
+        <v>422</v>
+      </c>
+      <c r="C249" t="s">
+        <v>423</v>
+      </c>
+      <c r="D249" t="s">
         <v>424</v>
-      </c>
-      <c r="C249" t="s">
-        <v>425</v>
-      </c>
-      <c r="D249" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5567,13 +5561,13 @@
         <v>44034</v>
       </c>
       <c r="B250" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C250" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D250" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5581,13 +5575,13 @@
         <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C251" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D251" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -5595,13 +5589,13 @@
         <v>44043</v>
       </c>
       <c r="B252" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C252" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D252" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5609,13 +5603,13 @@
         <v>44045</v>
       </c>
       <c r="B253" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C253" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D253" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5623,13 +5617,13 @@
         <v>44048</v>
       </c>
       <c r="B254" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D254" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5637,13 +5631,13 @@
         <v>44052</v>
       </c>
       <c r="B255" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C255" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D255" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,13 +5645,13 @@
         <v>44064</v>
       </c>
       <c r="B256" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C256" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D256" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5665,13 +5659,13 @@
         <v>44073</v>
       </c>
       <c r="B257" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C257" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D257" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,13 +5673,13 @@
         <v>44081</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C258" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D258" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5693,13 +5687,13 @@
         <v>44083</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D259" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5707,13 +5701,13 @@
         <v>44084</v>
       </c>
       <c r="B260" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C260" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D260" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5721,13 +5715,13 @@
         <v>44085</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D261" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5735,13 +5729,13 @@
         <v>45035</v>
       </c>
       <c r="B262" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C262" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D262" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5749,13 +5743,13 @@
         <v>45041</v>
       </c>
       <c r="B263" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C263" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D263" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5763,13 +5757,13 @@
         <v>45059</v>
       </c>
       <c r="B264" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C264" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D264" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5777,13 +5771,13 @@
         <v>45060</v>
       </c>
       <c r="B265" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C265" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D265" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5791,13 +5785,13 @@
         <v>45061</v>
       </c>
       <c r="B266" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D266" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5805,13 +5799,13 @@
         <v>45062</v>
       </c>
       <c r="B267" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C267" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D267" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5819,7 +5813,7 @@
         <v>45063</v>
       </c>
       <c r="B268" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C268" t="s">
         <v>365</v>
@@ -5833,13 +5827,13 @@
         <v>45064</v>
       </c>
       <c r="B269" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C269" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D269" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5847,13 +5841,13 @@
         <v>45065</v>
       </c>
       <c r="B270" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C270" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D270" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5861,13 +5855,13 @@
         <v>45068</v>
       </c>
       <c r="B271" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C271" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D271" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5875,13 +5869,13 @@
         <v>46003</v>
       </c>
       <c r="B272" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C272" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D272" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5889,13 +5883,13 @@
         <v>46013</v>
       </c>
       <c r="B273" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C273" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D273" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5903,13 +5897,13 @@
         <v>46014</v>
       </c>
       <c r="B274" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C274" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D274" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5917,13 +5911,13 @@
         <v>46020</v>
       </c>
       <c r="B275" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C275" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D275" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5931,13 +5925,13 @@
         <v>46021</v>
       </c>
       <c r="B276" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C276" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D276" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5945,13 +5939,13 @@
         <v>46024</v>
       </c>
       <c r="B277" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C277" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D277" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5959,13 +5953,13 @@
         <v>46025</v>
       </c>
       <c r="B278" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C278" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D278" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5973,7 +5967,7 @@
         <v>71002</v>
       </c>
       <c r="B279" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C279" t="s">
         <v>72</v>
@@ -5987,13 +5981,13 @@
         <v>71004</v>
       </c>
       <c r="B280" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C280" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D280" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6001,13 +5995,13 @@
         <v>71011</v>
       </c>
       <c r="B281" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C281" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D281" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6015,7 +6009,7 @@
         <v>71016</v>
       </c>
       <c r="B282" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C282" t="s">
         <v>72</v>
@@ -6029,13 +6023,13 @@
         <v>71017</v>
       </c>
       <c r="B283" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C283" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6043,13 +6037,13 @@
         <v>71020</v>
       </c>
       <c r="B284" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C284" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D284" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6057,13 +6051,13 @@
         <v>71022</v>
       </c>
       <c r="B285" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C285" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D285" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,13 +6065,13 @@
         <v>71024</v>
       </c>
       <c r="B286" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C286" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D286" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6085,13 +6079,13 @@
         <v>71034</v>
       </c>
       <c r="B287" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C287" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D287" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -6099,13 +6093,13 @@
         <v>71037</v>
       </c>
       <c r="B288" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C288" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D288" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6113,13 +6107,13 @@
         <v>71045</v>
       </c>
       <c r="B289" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C289" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D289" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6127,13 +6121,13 @@
         <v>71053</v>
       </c>
       <c r="B290" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C290" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D290" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6141,13 +6135,13 @@
         <v>71057</v>
       </c>
       <c r="B291" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C291" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D291" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6155,13 +6149,13 @@
         <v>71066</v>
       </c>
       <c r="B292" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C292" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D292" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -6169,7 +6163,7 @@
         <v>71067</v>
       </c>
       <c r="B293" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C293" t="s">
         <v>72</v>
@@ -6183,13 +6177,13 @@
         <v>71069</v>
       </c>
       <c r="B294" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C294" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D294" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6197,13 +6191,13 @@
         <v>71070</v>
       </c>
       <c r="B295" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C295" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D295" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -6211,7 +6205,7 @@
         <v>72003</v>
       </c>
       <c r="B296" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C296" t="s">
         <v>72</v>
@@ -6225,7 +6219,7 @@
         <v>72004</v>
       </c>
       <c r="B297" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C297" t="s">
         <v>72</v>
@@ -6239,7 +6233,7 @@
         <v>72018</v>
       </c>
       <c r="B298" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C298" t="s">
         <v>72</v>
@@ -6253,13 +6247,13 @@
         <v>72020</v>
       </c>
       <c r="B299" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C299" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D299" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6267,13 +6261,13 @@
         <v>72021</v>
       </c>
       <c r="B300" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C300" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D300" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,13 +6275,13 @@
         <v>72030</v>
       </c>
       <c r="B301" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C301" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D301" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6295,13 +6289,13 @@
         <v>72037</v>
       </c>
       <c r="B302" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C302" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D302" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -6309,13 +6303,13 @@
         <v>72038</v>
       </c>
       <c r="B303" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C303" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D303" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -6323,7 +6317,7 @@
         <v>72039</v>
       </c>
       <c r="B304" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C304" t="s">
         <v>72</v>
@@ -6337,13 +6331,13 @@
         <v>72041</v>
       </c>
       <c r="B305" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C305" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D305" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -6351,7 +6345,7 @@
         <v>72042</v>
       </c>
       <c r="B306" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C306" t="s">
         <v>72</v>
@@ -6365,13 +6359,13 @@
         <v>72043</v>
       </c>
       <c r="B307" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C307" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D307" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>73001</v>
       </c>
       <c r="B308" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C308" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D308" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -6393,13 +6387,13 @@
         <v>73006</v>
       </c>
       <c r="B309" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C309" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D309" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -6407,13 +6401,13 @@
         <v>73009</v>
       </c>
       <c r="B310" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C310" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D310" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -6421,13 +6415,13 @@
         <v>73022</v>
       </c>
       <c r="B311" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C311" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D311" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -6435,13 +6429,13 @@
         <v>73028</v>
       </c>
       <c r="B312" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C312" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D312" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -6449,13 +6443,13 @@
         <v>73032</v>
       </c>
       <c r="B313" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C313" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D313" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -6463,13 +6457,13 @@
         <v>73040</v>
       </c>
       <c r="B314" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C314" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D314" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -6477,13 +6471,13 @@
         <v>73042</v>
       </c>
       <c r="B315" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C315" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D315" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -6491,13 +6485,13 @@
         <v>73066</v>
       </c>
       <c r="B316" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C316" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D316" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -6505,13 +6499,13 @@
         <v>73083</v>
       </c>
       <c r="B317" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C317" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D317" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -6519,13 +6513,13 @@
         <v>73098</v>
       </c>
       <c r="B318" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C318" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D318" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -6533,13 +6527,13 @@
         <v>73107</v>
       </c>
       <c r="B319" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C319" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D319" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -6547,13 +6541,13 @@
         <v>73109</v>
       </c>
       <c r="B320" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C320" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D320" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -6561,13 +6555,13 @@
         <v>99999</v>
       </c>
       <c r="B321" t="s">
+        <v>540</v>
+      </c>
+      <c r="C321" t="s">
         <v>543</v>
       </c>
-      <c r="C321" t="s">
-        <v>546</v>
-      </c>
       <c r="D321" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -6575,13 +6569,13 @@
         <v>99991</v>
       </c>
       <c r="B322" t="s">
+        <v>541</v>
+      </c>
+      <c r="C322" t="s">
         <v>544</v>
       </c>
-      <c r="C322" t="s">
-        <v>547</v>
-      </c>
       <c r="D322" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -6589,13 +6583,13 @@
         <v>99992</v>
       </c>
       <c r="B323" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C323" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D323" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -6603,13 +6597,13 @@
         <v>99993</v>
       </c>
       <c r="B324" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C324" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D324" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8251F46-1ED0-4419-968C-5DC86518F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2DC218-4BDE-4C79-A74E-33BEE2D69F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="533">
   <si>
     <t>politiezone</t>
   </si>
@@ -72,9 +83,6 @@
     <t>PZ Rupel</t>
   </si>
   <si>
-    <t>Borsbeek</t>
-  </si>
-  <si>
     <t>Brasschaat</t>
   </si>
   <si>
@@ -180,15 +188,6 @@
     <t>Zoersel</t>
   </si>
   <si>
-    <t>Zwijndrecht</t>
-  </si>
-  <si>
-    <t>ipz11</t>
-  </si>
-  <si>
-    <t>PZ Zwijndrecht</t>
-  </si>
-  <si>
     <t>Malle</t>
   </si>
   <si>
@@ -504,12 +503,6 @@
     <t>PZ Dilbeek</t>
   </si>
   <si>
-    <t>Galmaarden</t>
-  </si>
-  <si>
-    <t>Gooik</t>
-  </si>
-  <si>
     <t>Grimbergen</t>
   </si>
   <si>
@@ -522,9 +515,6 @@
     <t>Halle</t>
   </si>
   <si>
-    <t>Herne</t>
-  </si>
-  <si>
     <t>Hoeilaart</t>
   </si>
   <si>
@@ -1059,18 +1049,12 @@
     <t>Dentergem</t>
   </si>
   <si>
-    <t>Meulebeke</t>
-  </si>
-  <si>
     <t>Oostrozebeke</t>
   </si>
   <si>
     <t>Pittem</t>
   </si>
   <si>
-    <t>Ruiselede</t>
-  </si>
-  <si>
     <t>Tielt</t>
   </si>
   <si>
@@ -1272,9 +1256,6 @@
     <t>PZ Hano</t>
   </si>
   <si>
-    <t>De Pinte</t>
-  </si>
-  <si>
     <t>ipz91</t>
   </si>
   <si>
@@ -1308,18 +1289,6 @@
     <t>Lochristi</t>
   </si>
   <si>
-    <t>Melle</t>
-  </si>
-  <si>
-    <t>Merelbeke</t>
-  </si>
-  <si>
-    <t>Moerbeke</t>
-  </si>
-  <si>
-    <t>Nazareth</t>
-  </si>
-  <si>
     <t>Aalter</t>
   </si>
   <si>
@@ -1332,9 +1301,6 @@
     <t>Sint-Martens-Latem</t>
   </si>
   <si>
-    <t>Wachtebeke</t>
-  </si>
-  <si>
     <t>Deinze</t>
   </si>
   <si>
@@ -1365,12 +1331,6 @@
     <t>Brakel</t>
   </si>
   <si>
-    <t>ipz97</t>
-  </si>
-  <si>
-    <t>PZ Brakel</t>
-  </si>
-  <si>
     <t>Kluisbergen</t>
   </si>
   <si>
@@ -1389,24 +1349,9 @@
     <t>Zwalm</t>
   </si>
   <si>
-    <t>Beveren</t>
-  </si>
-  <si>
     <t>ipz98</t>
   </si>
   <si>
-    <t>PZ Waasland-Noord</t>
-  </si>
-  <si>
-    <t>Kruibeke</t>
-  </si>
-  <si>
-    <t>ipz99</t>
-  </si>
-  <si>
-    <t>PZ Kruibeke - Temse</t>
-  </si>
-  <si>
     <t>Lokeren</t>
   </si>
   <si>
@@ -1494,18 +1439,12 @@
     <t>Sint-Truiden</t>
   </si>
   <si>
-    <t>Tessenderlo</t>
-  </si>
-  <si>
     <t>Zonhoven</t>
   </si>
   <si>
     <t>Zutendaal</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
     <t>Heusden-Zolder</t>
   </si>
   <si>
@@ -1563,39 +1502,18 @@
     <t>ipz111</t>
   </si>
   <si>
-    <t>PZ Kanton Borgloon</t>
-  </si>
-  <si>
-    <t>Bilzen</t>
-  </si>
-  <si>
     <t>ipz112</t>
   </si>
   <si>
     <t>PZ Bilzen - Hoeselt - Riemst</t>
   </si>
   <si>
-    <t>Borgloon</t>
-  </si>
-  <si>
     <t>Heers</t>
   </si>
   <si>
     <t>Herstappe</t>
   </si>
   <si>
-    <t>ipz113</t>
-  </si>
-  <si>
-    <t>PZ Tongeren - Herstappe</t>
-  </si>
-  <si>
-    <t>Hoeselt</t>
-  </si>
-  <si>
-    <t>Kortessem</t>
-  </si>
-  <si>
     <t>Lanaken</t>
   </si>
   <si>
@@ -1608,9 +1526,6 @@
     <t>Riemst</t>
   </si>
   <si>
-    <t>Tongeren</t>
-  </si>
-  <si>
     <t>Wellen</t>
   </si>
   <si>
@@ -1650,15 +1565,6 @@
     <t>Name gemeente_2019</t>
   </si>
   <si>
-    <t>gemeente onbekend</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Brussel)</t>
-  </si>
-  <si>
     <t>ipz999</t>
   </si>
   <si>
@@ -1689,9 +1595,6 @@
     <t>PZ Rivierenland</t>
   </si>
   <si>
-    <t>niet te lokaliseren</t>
-  </si>
-  <si>
     <t>ipz993</t>
   </si>
   <si>
@@ -1699,6 +1602,42 @@
   </si>
   <si>
     <t>PZ Aalter/Maldegem</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Brussel</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
+  </si>
+  <si>
+    <t>PZ Haspengouw</t>
+  </si>
+  <si>
+    <t>PZ Scheldewaas</t>
   </si>
 </sst>
 </file>
@@ -1714,18 +1653,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1740,9 +1673,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2056,26 +1988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012C7B0F-B52F-4C22-82EF-3DD177CB2B98}">
+  <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D242" sqref="C242:D242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2106,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2142,133 +2069,133 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11009</v>
+        <v>11013</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11013</v>
+        <v>11016</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11016</v>
+        <v>11018</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11018</v>
+        <v>11021</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11021</v>
+        <v>11022</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11022</v>
+        <v>11023</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11023</v>
+        <v>11024</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -2282,63 +2209,63 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11025</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11029</v>
+        <v>11030</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11030</v>
+        <v>11035</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11035</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -2352,63 +2279,63 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11039</v>
+        <v>11040</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11040</v>
+        <v>11044</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11044</v>
+        <v>11050</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11050</v>
+        <v>11052</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -2422,63 +2349,63 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11052</v>
+        <v>11053</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11053</v>
+        <v>11054</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11054</v>
+        <v>11055</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11055</v>
+        <v>11057</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11056</v>
+        <v>12002</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2492,2600 +2419,2600 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11057</v>
+        <v>12005</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>12007</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>12005</v>
+        <v>12009</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>12007</v>
+        <v>12014</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>12009</v>
+        <v>12021</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12014</v>
+        <v>12025</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12021</v>
+        <v>12026</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12025</v>
+        <v>12029</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>552</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12026</v>
+        <v>12035</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
         <v>55</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>12029</v>
+        <v>12040</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>12035</v>
+        <v>12041</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12040</v>
+        <v>13001</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>552</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12041</v>
+        <v>13002</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>552</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13002</v>
+        <v>13004</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13004</v>
+        <v>13008</v>
       </c>
       <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13006</v>
+        <v>13010</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13008</v>
+        <v>13011</v>
       </c>
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13010</v>
+        <v>13012</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13011</v>
+        <v>13013</v>
       </c>
       <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13012</v>
+        <v>13014</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13013</v>
+        <v>13016</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13014</v>
+        <v>13017</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13016</v>
+        <v>13019</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>13017</v>
+        <v>13021</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13019</v>
+        <v>13023</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>13023</v>
+        <v>13029</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13025</v>
+        <v>13031</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13029</v>
+        <v>13035</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>13031</v>
+        <v>13036</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13035</v>
+        <v>13037</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13036</v>
+        <v>13040</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
         <v>77</v>
-      </c>
-      <c r="D64" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13037</v>
+        <v>13044</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13040</v>
+        <v>13046</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13044</v>
+        <v>13049</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>13046</v>
+        <v>13053</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>13049</v>
+        <v>21001</v>
       </c>
       <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" t="s">
         <v>115</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>13053</v>
+        <v>21002</v>
       </c>
       <c r="B70" t="s">
         <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>21001</v>
+        <v>21003</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>21002</v>
+        <v>21004</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>21003</v>
+        <v>21005</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>21004</v>
+        <v>21006</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>21005</v>
+        <v>21007</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>21006</v>
+        <v>21008</v>
       </c>
       <c r="B76" t="s">
         <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>21007</v>
+        <v>21009</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>21008</v>
+        <v>21010</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>21009</v>
+        <v>21011</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>21010</v>
+        <v>21012</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>21011</v>
+        <v>21013</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>21012</v>
+        <v>21014</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>21013</v>
+        <v>21015</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>21014</v>
+        <v>21016</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>21015</v>
+        <v>21017</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>21016</v>
+        <v>21018</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>21017</v>
+        <v>21019</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>21018</v>
+        <v>23002</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>21019</v>
+        <v>23003</v>
       </c>
       <c r="B89" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" t="s">
         <v>147</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23002</v>
+        <v>23009</v>
       </c>
       <c r="B90" t="s">
         <v>148</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23003</v>
+        <v>23016</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23009</v>
+        <v>23025</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23016</v>
+        <v>23027</v>
       </c>
       <c r="B93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23023</v>
+        <v>23033</v>
       </c>
       <c r="B94" t="s">
         <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23024</v>
+        <v>23038</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23025</v>
+        <v>23039</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23027</v>
+        <v>23044</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>23032</v>
+        <v>23045</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23033</v>
+        <v>23047</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D99" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23038</v>
+        <v>23050</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23039</v>
+        <v>23052</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23044</v>
+        <v>23060</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23045</v>
+        <v>23062</v>
       </c>
       <c r="B103" t="s">
         <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23047</v>
+        <v>23064</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23050</v>
+        <v>23077</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>23052</v>
+        <v>23081</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>23060</v>
+        <v>23086</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>23062</v>
+        <v>23088</v>
       </c>
       <c r="B108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>23064</v>
+        <v>23094</v>
       </c>
       <c r="B109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
         <v>185</v>
-      </c>
-      <c r="C109" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>23077</v>
+        <v>23096</v>
       </c>
       <c r="B110" t="s">
         <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>23081</v>
+        <v>23097</v>
       </c>
       <c r="B111" t="s">
         <v>187</v>
       </c>
       <c r="C111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" t="s">
         <v>169</v>
-      </c>
-      <c r="D111" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>23086</v>
+        <v>23098</v>
       </c>
       <c r="B112" t="s">
         <v>188</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>23088</v>
+        <v>23099</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D113" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>23094</v>
+        <v>23100</v>
       </c>
       <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" t="s">
         <v>190</v>
-      </c>
-      <c r="C114" t="s">
-        <v>191</v>
-      </c>
-      <c r="D114" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>23096</v>
+        <v>23101</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>23097</v>
+        <v>23102</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>23098</v>
+        <v>23103</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>23099</v>
+        <v>23104</v>
       </c>
       <c r="B118" t="s">
         <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D118" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>23100</v>
+        <v>23105</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>23101</v>
+        <v>23106</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>23102</v>
+        <v>24001</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>23103</v>
+        <v>24007</v>
       </c>
       <c r="B122" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" t="s">
         <v>204</v>
       </c>
-      <c r="C122" t="s">
-        <v>199</v>
-      </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>23104</v>
+        <v>24008</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D123" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>23105</v>
+        <v>24009</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24001</v>
+        <v>24011</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D125" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24007</v>
+        <v>24014</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24008</v>
+        <v>24016</v>
       </c>
       <c r="B127" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" t="s">
         <v>213</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>214</v>
-      </c>
-      <c r="D127" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24009</v>
+        <v>24020</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24011</v>
+        <v>24028</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24014</v>
+        <v>24033</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24016</v>
+        <v>24038</v>
       </c>
       <c r="B131" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" t="s">
         <v>225</v>
       </c>
-      <c r="C131" t="s">
-        <v>220</v>
-      </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24020</v>
+        <v>24041</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24028</v>
+        <v>24043</v>
       </c>
       <c r="B133" t="s">
         <v>229</v>
       </c>
       <c r="C133" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" t="s">
         <v>214</v>
-      </c>
-      <c r="D133" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24033</v>
+        <v>24045</v>
       </c>
       <c r="B134" t="s">
         <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24038</v>
+        <v>24048</v>
       </c>
       <c r="B135" t="s">
         <v>231</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>24041</v>
+        <v>24054</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D136" t="s">
-        <v>551</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>24043</v>
+        <v>24055</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C137" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>24045</v>
+        <v>24059</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>24048</v>
+        <v>24062</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>24054</v>
+        <v>24066</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
         <v>214</v>
-      </c>
-      <c r="D140" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>24055</v>
+        <v>24086</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C141" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>24059</v>
+        <v>24094</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D142" t="s">
-        <v>551</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>24062</v>
+        <v>24104</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D143" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>24066</v>
+        <v>24107</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>221</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>24086</v>
+        <v>24109</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D145" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>24094</v>
+        <v>24130</v>
       </c>
       <c r="B146" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>212</v>
+        <v>516</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>24104</v>
+        <v>24133</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>218</v>
+        <v>516</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>24107</v>
+        <v>24134</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D148" t="s">
-        <v>551</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>24109</v>
+        <v>24135</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D149" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>24130</v>
+        <v>24137</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
-        <v>551</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>24133</v>
+        <v>31003</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D151" t="s">
-        <v>551</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>24134</v>
+        <v>31004</v>
       </c>
       <c r="B152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" t="s">
         <v>253</v>
       </c>
-      <c r="C152" t="s">
-        <v>227</v>
-      </c>
       <c r="D152" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>24135</v>
+        <v>31005</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D153" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>24137</v>
+        <v>31006</v>
       </c>
       <c r="B154" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="D154" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>31003</v>
+        <v>31012</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C155" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D155" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>31004</v>
+        <v>31022</v>
       </c>
       <c r="B156" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C156" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D156" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>31005</v>
+        <v>31033</v>
       </c>
       <c r="B157" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" t="s">
         <v>262</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>263</v>
-      </c>
-      <c r="D157" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>31006</v>
+        <v>31040</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>31012</v>
+        <v>31042</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D159" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>31022</v>
+        <v>31043</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C160" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D160" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>31033</v>
+        <v>32003</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>31040</v>
+        <v>32006</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C162" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D162" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>31042</v>
+        <v>32010</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>31043</v>
+        <v>32011</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C164" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D164" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>32003</v>
+        <v>32030</v>
       </c>
       <c r="B165" t="s">
+        <v>275</v>
+      </c>
+      <c r="C165" t="s">
         <v>276</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>277</v>
-      </c>
-      <c r="D165" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>32006</v>
+        <v>33011</v>
       </c>
       <c r="B166" t="s">
+        <v>278</v>
+      </c>
+      <c r="C166" t="s">
         <v>279</v>
       </c>
-      <c r="C166" t="s">
-        <v>277</v>
-      </c>
       <c r="D166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>32010</v>
+        <v>33016</v>
       </c>
       <c r="B167" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" t="s">
         <v>280</v>
-      </c>
-      <c r="C167" t="s">
-        <v>277</v>
-      </c>
-      <c r="D167" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>32011</v>
+        <v>33021</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>32030</v>
+        <v>33029</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D169" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>33011</v>
+        <v>33037</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C170" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D170" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>33016</v>
+        <v>33039</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C171" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D171" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>33021</v>
+        <v>33040</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C172" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D172" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>33029</v>
+        <v>33041</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C173" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D173" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>33037</v>
+        <v>34002</v>
       </c>
       <c r="B174" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C174" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D174" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>33039</v>
+        <v>34003</v>
       </c>
       <c r="B175" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C175" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D175" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>33040</v>
+        <v>34009</v>
       </c>
       <c r="B176" t="s">
+        <v>292</v>
+      </c>
+      <c r="C176" t="s">
         <v>293</v>
       </c>
-      <c r="C176" t="s">
-        <v>286</v>
-      </c>
       <c r="D176" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>33041</v>
+        <v>34013</v>
       </c>
       <c r="B177" t="s">
+        <v>295</v>
+      </c>
+      <c r="C177" t="s">
+        <v>293</v>
+      </c>
+      <c r="D177" t="s">
         <v>294</v>
-      </c>
-      <c r="C177" t="s">
-        <v>286</v>
-      </c>
-      <c r="D177" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>34002</v>
+        <v>34022</v>
       </c>
       <c r="B178" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D178" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>34003</v>
+        <v>34023</v>
       </c>
       <c r="B179" t="s">
+        <v>299</v>
+      </c>
+      <c r="C179" t="s">
+        <v>297</v>
+      </c>
+      <c r="D179" t="s">
         <v>298</v>
-      </c>
-      <c r="C179" t="s">
-        <v>296</v>
-      </c>
-      <c r="D179" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>34009</v>
+        <v>34025</v>
       </c>
       <c r="B180" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C180" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D180" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>34013</v>
+        <v>34027</v>
       </c>
       <c r="B181" t="s">
+        <v>301</v>
+      </c>
+      <c r="C181" t="s">
         <v>302</v>
       </c>
-      <c r="C181" t="s">
-        <v>300</v>
-      </c>
       <c r="D181" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>34022</v>
+        <v>34040</v>
       </c>
       <c r="B182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C182" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D182" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>34023</v>
+        <v>34041</v>
       </c>
       <c r="B183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C183" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D183" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>34025</v>
+        <v>34042</v>
       </c>
       <c r="B184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C184" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D184" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>34027</v>
+        <v>34043</v>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D185" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>34040</v>
+        <v>35002</v>
       </c>
       <c r="B186" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C186" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>34041</v>
+        <v>35005</v>
       </c>
       <c r="B187" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C187" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="D187" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>34042</v>
+        <v>35006</v>
       </c>
       <c r="B188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C188" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D188" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>34043</v>
+        <v>35011</v>
       </c>
       <c r="B189" t="s">
+        <v>313</v>
+      </c>
+      <c r="C189" t="s">
         <v>314</v>
       </c>
-      <c r="C189" t="s">
-        <v>296</v>
-      </c>
       <c r="D189" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>35002</v>
+        <v>35013</v>
       </c>
       <c r="B190" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C190" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D190" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>35005</v>
+        <v>35014</v>
       </c>
       <c r="B191" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>35006</v>
+        <v>35029</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="D192" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>35011</v>
+        <v>36006</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>35013</v>
+        <v>36007</v>
       </c>
       <c r="B194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D194" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>35014</v>
+        <v>36008</v>
       </c>
       <c r="B195" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="D195" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>35029</v>
+        <v>36010</v>
       </c>
       <c r="B196" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C196" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D196" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>36006</v>
+        <v>36011</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D197" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>36007</v>
+        <v>36012</v>
       </c>
       <c r="B198" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="D198" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>36008</v>
+        <v>36015</v>
       </c>
       <c r="B199" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D199" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>36010</v>
+        <v>36019</v>
       </c>
       <c r="B200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C200" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D200" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>36011</v>
+        <v>37002</v>
       </c>
       <c r="B201" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C201" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D201" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>36012</v>
+        <v>37010</v>
       </c>
       <c r="B202" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C202" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="D202" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>36015</v>
+        <v>37011</v>
       </c>
       <c r="B203" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>36019</v>
+        <v>37017</v>
       </c>
       <c r="B204" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C204" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="D204" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>37002</v>
+        <v>37020</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C205" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D205" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>37007</v>
+        <v>37021</v>
       </c>
       <c r="B206" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C206" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D206" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>37010</v>
+        <v>37022</v>
       </c>
       <c r="B207" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C207" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D207" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>37011</v>
+        <v>38002</v>
       </c>
       <c r="B208" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C208" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="D208" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>37012</v>
+        <v>38008</v>
       </c>
       <c r="B209" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C209" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D209" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>37015</v>
+        <v>38014</v>
       </c>
       <c r="B210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C210" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D210" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>37017</v>
+        <v>38016</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C211" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D211" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>37018</v>
+        <v>38025</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="D212" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>37020</v>
+        <v>41002</v>
       </c>
       <c r="B213" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" t="s">
         <v>350</v>
       </c>
-      <c r="C213" t="s">
-        <v>337</v>
-      </c>
       <c r="D213" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>38002</v>
+        <v>41011</v>
       </c>
       <c r="B214" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C214" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="D214" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>38008</v>
+        <v>41018</v>
       </c>
       <c r="B215" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C215" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D215" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>38014</v>
+        <v>41024</v>
       </c>
       <c r="B216" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C216" t="s">
         <v>353</v>
@@ -5096,178 +5023,178 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>38016</v>
+        <v>41027</v>
       </c>
       <c r="B217" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C217" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D217" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>38025</v>
+        <v>41034</v>
       </c>
       <c r="B218" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C218" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="D218" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>41002</v>
+        <v>41048</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D219" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>41011</v>
+        <v>41063</v>
       </c>
       <c r="B220" t="s">
+        <v>368</v>
+      </c>
+      <c r="C220" t="s">
+        <v>360</v>
+      </c>
+      <c r="D220" t="s">
         <v>361</v>
-      </c>
-      <c r="C220" t="s">
-        <v>362</v>
-      </c>
-      <c r="D220" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>41018</v>
+        <v>41081</v>
       </c>
       <c r="B221" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D221" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>41024</v>
+        <v>41082</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C222" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D222" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>41027</v>
+        <v>42003</v>
       </c>
       <c r="B223" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C223" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D223" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>41034</v>
+        <v>42004</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C224" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D224" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>41048</v>
+        <v>42006</v>
       </c>
       <c r="B225" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C225" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D225" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>41063</v>
+        <v>42008</v>
       </c>
       <c r="B226" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C226" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D226" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>41081</v>
+        <v>42010</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C227" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D227" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>41082</v>
+        <v>42011</v>
       </c>
       <c r="B228" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C228" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D228" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>42003</v>
+        <v>42023</v>
       </c>
       <c r="B229" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C229" t="s">
         <v>381</v>
@@ -5278,10 +5205,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>42004</v>
+        <v>42025</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C230" t="s">
         <v>384</v>
@@ -5292,455 +5219,455 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>42006</v>
+        <v>42026</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C231" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D231" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>42008</v>
+        <v>42028</v>
       </c>
       <c r="B232" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C232" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D232" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>42010</v>
+        <v>43002</v>
       </c>
       <c r="B233" t="s">
+        <v>391</v>
+      </c>
+      <c r="C233" t="s">
         <v>392</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>393</v>
-      </c>
-      <c r="D233" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>42011</v>
+        <v>43005</v>
       </c>
       <c r="B234" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" t="s">
         <v>395</v>
       </c>
-      <c r="C234" t="s">
-        <v>384</v>
-      </c>
       <c r="D234" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>42023</v>
+        <v>43007</v>
       </c>
       <c r="B235" t="s">
+        <v>397</v>
+      </c>
+      <c r="C235" t="s">
+        <v>395</v>
+      </c>
+      <c r="D235" t="s">
         <v>396</v>
-      </c>
-      <c r="C235" t="s">
-        <v>390</v>
-      </c>
-      <c r="D235" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>42025</v>
+        <v>43010</v>
       </c>
       <c r="B236" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C236" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D236" t="s">
-        <v>394</v>
+        <v>520</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>42026</v>
+        <v>43014</v>
       </c>
       <c r="B237" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C237" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D237" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>42028</v>
+        <v>43018</v>
       </c>
       <c r="B238" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C238" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D238" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>43002</v>
+        <v>44013</v>
       </c>
       <c r="B239" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C239" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D239" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>43005</v>
+        <v>44019</v>
       </c>
       <c r="B240" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C240" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D240" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>43007</v>
+        <v>44020</v>
       </c>
       <c r="B241" t="s">
+        <v>411</v>
+      </c>
+      <c r="C241" t="s">
+        <v>405</v>
+      </c>
+      <c r="D241" t="s">
         <v>406</v>
-      </c>
-      <c r="C241" t="s">
-        <v>404</v>
-      </c>
-      <c r="D241" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>43010</v>
+        <v>44021</v>
       </c>
       <c r="B242" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C242" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D242" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>43014</v>
+        <v>44052</v>
       </c>
       <c r="B243" t="s">
+        <v>418</v>
+      </c>
+      <c r="C243" t="s">
         <v>408</v>
       </c>
-      <c r="C243" t="s">
-        <v>404</v>
-      </c>
       <c r="D243" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>43018</v>
+        <v>44064</v>
       </c>
       <c r="B244" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C244" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D244" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>44012</v>
+        <v>44081</v>
       </c>
       <c r="B245" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C245" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D245" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>44013</v>
+        <v>44083</v>
       </c>
       <c r="B246" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C246" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D246" t="s">
-        <v>419</v>
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>44019</v>
+        <v>44084</v>
       </c>
       <c r="B247" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C247" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D247" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>44020</v>
+        <v>44085</v>
       </c>
       <c r="B248" t="s">
+        <v>503</v>
+      </c>
+      <c r="C248" t="s">
         <v>421</v>
       </c>
-      <c r="C248" t="s">
-        <v>415</v>
-      </c>
       <c r="D248" t="s">
-        <v>416</v>
+        <v>514</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>44021</v>
+        <v>44086</v>
       </c>
       <c r="B249" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="C249" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D249" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>44034</v>
+        <v>44087</v>
       </c>
       <c r="B250" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C250" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D250" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>44040</v>
+        <v>44088</v>
       </c>
       <c r="B251" t="s">
-        <v>426</v>
+        <v>523</v>
       </c>
       <c r="C251" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D251" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>44043</v>
+        <v>45035</v>
       </c>
       <c r="B252" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C252" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D252" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>44045</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="s">
+        <v>426</v>
+      </c>
+      <c r="C253" t="s">
+        <v>427</v>
+      </c>
+      <c r="D253" t="s">
         <v>428</v>
-      </c>
-      <c r="C253" t="s">
-        <v>410</v>
-      </c>
-      <c r="D253" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>44048</v>
+        <v>45059</v>
       </c>
       <c r="B254" t="s">
         <v>429</v>
       </c>
       <c r="C254" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D254" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>44052</v>
+        <v>45060</v>
       </c>
       <c r="B255" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C255" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D255" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>44064</v>
+        <v>45061</v>
       </c>
       <c r="B256" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C256" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D256" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>44073</v>
+        <v>45062</v>
       </c>
       <c r="B257" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C257" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D257" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>44081</v>
+        <v>45063</v>
       </c>
       <c r="B258" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C258" t="s">
-        <v>436</v>
+        <v>356</v>
       </c>
       <c r="D258" t="s">
-        <v>549</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
-        <v>44083</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>436</v>
+      <c r="A259">
+        <v>45064</v>
+      </c>
+      <c r="B259" t="s">
+        <v>434</v>
+      </c>
+      <c r="C259" t="s">
+        <v>424</v>
       </c>
       <c r="D259" t="s">
-        <v>549</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>44084</v>
+        <v>45065</v>
       </c>
       <c r="B260" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C260" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D260" t="s">
-        <v>556</v>
+        <v>425</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
-        <v>44085</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>436</v>
+      <c r="A261">
+        <v>45068</v>
+      </c>
+      <c r="B261" t="s">
+        <v>504</v>
+      </c>
+      <c r="C261" t="s">
+        <v>424</v>
       </c>
       <c r="D261" t="s">
-        <v>549</v>
+        <v>425</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>45035</v>
+        <v>46020</v>
       </c>
       <c r="B262" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C262" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D262" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>45041</v>
+        <v>46021</v>
       </c>
       <c r="B263" t="s">
         <v>441</v>
@@ -5754,860 +5681,654 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>45059</v>
+        <v>46024</v>
       </c>
       <c r="B264" t="s">
         <v>444</v>
       </c>
       <c r="C264" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D264" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>45060</v>
+        <v>46025</v>
       </c>
       <c r="B265" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C265" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D265" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>45061</v>
+        <v>46029</v>
       </c>
       <c r="B266" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C266" t="s">
+        <v>438</v>
+      </c>
+      <c r="D266" t="s">
         <v>439</v>
-      </c>
-      <c r="D266" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>45062</v>
+        <v>46030</v>
       </c>
       <c r="B267" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="C267" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D267" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>45063</v>
+        <v>71002</v>
       </c>
       <c r="B268" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C268" t="s">
-        <v>365</v>
+        <v>68</v>
       </c>
       <c r="D268" t="s">
-        <v>366</v>
+        <v>69</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>45064</v>
+        <v>71004</v>
       </c>
       <c r="B269" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C269" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D269" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>45065</v>
+        <v>71011</v>
       </c>
       <c r="B270" t="s">
+        <v>450</v>
+      </c>
+      <c r="C270" t="s">
+        <v>451</v>
+      </c>
+      <c r="D270" t="s">
         <v>452</v>
-      </c>
-      <c r="C270" t="s">
-        <v>445</v>
-      </c>
-      <c r="D270" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>45068</v>
+        <v>71016</v>
       </c>
       <c r="B271" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="C271" t="s">
-        <v>439</v>
+        <v>68</v>
       </c>
       <c r="D271" t="s">
-        <v>440</v>
+        <v>69</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>46003</v>
+        <v>71017</v>
       </c>
       <c r="B272" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C272" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D272" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>46013</v>
+        <v>71020</v>
       </c>
       <c r="B273" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C273" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D273" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>46014</v>
+        <v>71024</v>
       </c>
       <c r="B274" t="s">
         <v>459</v>
       </c>
       <c r="C274" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D274" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>46020</v>
+        <v>71034</v>
       </c>
       <c r="B275" t="s">
+        <v>460</v>
+      </c>
+      <c r="C275" t="s">
+        <v>461</v>
+      </c>
+      <c r="D275" t="s">
         <v>462</v>
-      </c>
-      <c r="C275" t="s">
-        <v>454</v>
-      </c>
-      <c r="D275" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>46021</v>
+        <v>71037</v>
       </c>
       <c r="B276" t="s">
         <v>463</v>
       </c>
       <c r="C276" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D276" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>46024</v>
+        <v>71045</v>
       </c>
       <c r="B277" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C277" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D277" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>46025</v>
+        <v>71053</v>
       </c>
       <c r="B278" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C278" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D278" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>71002</v>
+        <v>71066</v>
       </c>
       <c r="B279" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C279" t="s">
-        <v>72</v>
+        <v>451</v>
       </c>
       <c r="D279" t="s">
-        <v>73</v>
+        <v>452</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>71004</v>
+        <v>71067</v>
       </c>
       <c r="B280" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C280" t="s">
-        <v>470</v>
+        <v>68</v>
       </c>
       <c r="D280" t="s">
-        <v>471</v>
+        <v>69</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>71011</v>
+        <v>71070</v>
       </c>
       <c r="B281" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C281" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D281" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>71016</v>
+        <v>71071</v>
       </c>
       <c r="B282" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="C282" t="s">
-        <v>72</v>
+        <v>448</v>
       </c>
       <c r="D282" t="s">
-        <v>73</v>
+        <v>449</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>71017</v>
+        <v>71072</v>
       </c>
       <c r="B283" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="C283" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="D283" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>71020</v>
+        <v>72003</v>
       </c>
       <c r="B284" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C284" t="s">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="D284" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>71022</v>
+        <v>72004</v>
       </c>
       <c r="B285" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C285" t="s">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="D285" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>71024</v>
+        <v>72018</v>
       </c>
       <c r="B286" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C286" t="s">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="D286" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>71034</v>
+        <v>72020</v>
       </c>
       <c r="B287" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C287" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D287" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>71037</v>
+        <v>72021</v>
       </c>
       <c r="B288" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C288" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D288" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>71045</v>
+        <v>72030</v>
       </c>
       <c r="B289" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C289" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D289" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>71053</v>
+        <v>72037</v>
       </c>
       <c r="B290" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C290" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="D290" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>71057</v>
+        <v>72038</v>
       </c>
       <c r="B291" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C291" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D291" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>71066</v>
+        <v>72039</v>
       </c>
       <c r="B292" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C292" t="s">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="D292" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>71067</v>
+        <v>72041</v>
       </c>
       <c r="B293" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C293" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="D293" t="s">
-        <v>73</v>
+        <v>479</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>71069</v>
+        <v>72042</v>
       </c>
       <c r="B294" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C294" t="s">
-        <v>470</v>
+        <v>68</v>
       </c>
       <c r="D294" t="s">
-        <v>471</v>
+        <v>69</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>71070</v>
+        <v>72043</v>
       </c>
       <c r="B295" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C295" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
       <c r="D295" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>72003</v>
+        <v>73001</v>
       </c>
       <c r="B296" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C296" t="s">
-        <v>72</v>
+        <v>451</v>
       </c>
       <c r="D296" t="s">
-        <v>73</v>
+        <v>452</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>72004</v>
+        <v>73022</v>
       </c>
       <c r="B297" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C297" t="s">
-        <v>72</v>
+        <v>486</v>
       </c>
       <c r="D297" t="s">
-        <v>73</v>
+        <v>531</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>72018</v>
+        <v>73028</v>
       </c>
       <c r="B298" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C298" t="s">
-        <v>72</v>
+        <v>486</v>
       </c>
       <c r="D298" t="s">
-        <v>73</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>72020</v>
+        <v>73042</v>
       </c>
       <c r="B299" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C299" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D299" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>72021</v>
+        <v>73066</v>
       </c>
       <c r="B300" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C300" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D300" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>72030</v>
+        <v>73098</v>
       </c>
       <c r="B301" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C301" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D301" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>72037</v>
+        <v>73107</v>
       </c>
       <c r="B302" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C302" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="D302" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>72038</v>
+        <v>73109</v>
       </c>
       <c r="B303" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C303" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D303" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>72039</v>
+        <v>73110</v>
       </c>
       <c r="B304" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C304" t="s">
-        <v>72</v>
+        <v>487</v>
       </c>
       <c r="D304" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>72041</v>
+        <v>73111</v>
       </c>
       <c r="B305" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C305" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D305" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>72042</v>
+        <v>99991</v>
       </c>
       <c r="B306" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C306" t="s">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="D306" t="s">
-        <v>73</v>
+        <v>510</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>72043</v>
+        <v>99992</v>
       </c>
       <c r="B307" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C307" t="s">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="D307" t="s">
-        <v>413</v>
+        <v>511</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>73001</v>
+        <v>99993</v>
       </c>
       <c r="B308" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C308" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D308" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>73006</v>
+        <v>99999</v>
       </c>
       <c r="B309" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C309" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D309" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>73009</v>
-      </c>
-      <c r="B310" t="s">
         <v>515</v>
       </c>
-      <c r="C310" t="s">
-        <v>510</v>
-      </c>
-      <c r="D310" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>73022</v>
-      </c>
-      <c r="B311" t="s">
-        <v>516</v>
-      </c>
-      <c r="C311" t="s">
-        <v>510</v>
-      </c>
-      <c r="D311" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>73028</v>
-      </c>
-      <c r="B312" t="s">
-        <v>517</v>
-      </c>
-      <c r="C312" t="s">
-        <v>518</v>
-      </c>
-      <c r="D312" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>73032</v>
-      </c>
-      <c r="B313" t="s">
-        <v>520</v>
-      </c>
-      <c r="C313" t="s">
-        <v>513</v>
-      </c>
-      <c r="D313" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>73040</v>
-      </c>
-      <c r="B314" t="s">
-        <v>521</v>
-      </c>
-      <c r="C314" t="s">
-        <v>510</v>
-      </c>
-      <c r="D314" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>73042</v>
-      </c>
-      <c r="B315" t="s">
-        <v>522</v>
-      </c>
-      <c r="C315" t="s">
-        <v>523</v>
-      </c>
-      <c r="D315" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>73066</v>
-      </c>
-      <c r="B316" t="s">
-        <v>525</v>
-      </c>
-      <c r="C316" t="s">
-        <v>513</v>
-      </c>
-      <c r="D316" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>73083</v>
-      </c>
-      <c r="B317" t="s">
-        <v>526</v>
-      </c>
-      <c r="C317" t="s">
-        <v>518</v>
-      </c>
-      <c r="D317" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>73098</v>
-      </c>
-      <c r="B318" t="s">
-        <v>527</v>
-      </c>
-      <c r="C318" t="s">
-        <v>510</v>
-      </c>
-      <c r="D318" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>73107</v>
-      </c>
-      <c r="B319" t="s">
-        <v>528</v>
-      </c>
-      <c r="C319" t="s">
-        <v>523</v>
-      </c>
-      <c r="D319" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>73109</v>
-      </c>
-      <c r="B320" t="s">
-        <v>529</v>
-      </c>
-      <c r="C320" t="s">
-        <v>530</v>
-      </c>
-      <c r="D320" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>99999</v>
-      </c>
-      <c r="B321" t="s">
-        <v>540</v>
-      </c>
-      <c r="C321" t="s">
-        <v>543</v>
-      </c>
-      <c r="D321" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>99991</v>
-      </c>
-      <c r="B322" t="s">
-        <v>541</v>
-      </c>
-      <c r="C322" t="s">
-        <v>544</v>
-      </c>
-      <c r="D322" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>99992</v>
-      </c>
-      <c r="B323" t="s">
-        <v>542</v>
-      </c>
-      <c r="C323" t="s">
-        <v>547</v>
-      </c>
-      <c r="D323" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>99993</v>
-      </c>
-      <c r="B324" t="s">
-        <v>553</v>
-      </c>
-      <c r="C324" t="s">
-        <v>554</v>
-      </c>
-      <c r="D324" t="s">
-        <v>555</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D323" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{012C7B0F-B52F-4C22-82EF-3DD177CB2B98}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D309">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_politiezone.xlsx
+++ b/kerntabellen/gemeente_politiezone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2DC218-4BDE-4C79-A74E-33BEE2D69F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF86CFB-FAE8-46EF-B379-33723AD4E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="530">
   <si>
     <t>politiezone</t>
   </si>
@@ -1562,21 +1562,12 @@
     <t>ipz2</t>
   </si>
   <si>
-    <t>Name gemeente_2019</t>
-  </si>
-  <si>
     <t>ipz999</t>
   </si>
   <si>
     <t>ipz991</t>
   </si>
   <si>
-    <t>Politiezone onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>Politiezone onbekend (Brussel)</t>
-  </si>
-  <si>
     <t>ipz992</t>
   </si>
   <si>
@@ -1598,9 +1589,6 @@
     <t>ipz993</t>
   </si>
   <si>
-    <t>Politiezone onbekend</t>
-  </si>
-  <si>
     <t>PZ Aalter/Maldegem</t>
   </si>
   <si>
@@ -1638,6 +1626,9 @@
   </si>
   <si>
     <t>PZ Scheldewaas</t>
+  </si>
+  <si>
+    <t>Name gemeente</t>
   </si>
 </sst>
 </file>
@@ -1693,9 +1684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1733,7 +1724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1839,7 +1830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1981,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1992,17 +1983,17 @@
   <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2442,7 +2433,7 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,7 +2489,7 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2554,7 +2545,7 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,7 +2559,7 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3668,7 +3659,7 @@
         <v>23106</v>
       </c>
       <c r="B120" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C120" t="s">
         <v>149</v>
@@ -3842,7 +3833,7 @@
         <v>228</v>
       </c>
       <c r="D132" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,7 +3917,7 @@
         <v>228</v>
       </c>
       <c r="D138" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,7 +4001,7 @@
         <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,7 +4029,7 @@
         <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,7 +4043,7 @@
         <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,7 +5289,7 @@
         <v>417</v>
       </c>
       <c r="D236" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,7 +5415,7 @@
         <v>421</v>
       </c>
       <c r="D245" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,7 +5429,7 @@
         <v>421</v>
       </c>
       <c r="D246" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,7 +5443,7 @@
         <v>417</v>
       </c>
       <c r="D247" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,7 +5457,7 @@
         <v>421</v>
       </c>
       <c r="D248" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5474,7 +5465,7 @@
         <v>44086</v>
       </c>
       <c r="B249" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C249" t="s">
         <v>405</v>
@@ -5502,7 +5493,7 @@
         <v>44088</v>
       </c>
       <c r="B251" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C251" t="s">
         <v>408</v>
@@ -5662,7 +5653,7 @@
         <v>436</v>
       </c>
       <c r="D262" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5690,7 +5681,7 @@
         <v>436</v>
       </c>
       <c r="D264" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5704,7 +5695,7 @@
         <v>436</v>
       </c>
       <c r="D265" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,13 +5717,13 @@
         <v>46030</v>
       </c>
       <c r="B267" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C267" t="s">
         <v>436</v>
       </c>
       <c r="D267" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,7 +5927,7 @@
         <v>71071</v>
       </c>
       <c r="B282" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C282" t="s">
         <v>448</v>
@@ -6152,7 +6143,7 @@
         <v>486</v>
       </c>
       <c r="D297" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6166,7 +6157,7 @@
         <v>486</v>
       </c>
       <c r="D298" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6208,7 +6199,7 @@
         <v>486</v>
       </c>
       <c r="D301" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6244,7 +6235,7 @@
         <v>73110</v>
       </c>
       <c r="B304" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C304" t="s">
         <v>487</v>
@@ -6258,13 +6249,13 @@
         <v>73111</v>
       </c>
       <c r="B305" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C305" t="s">
         <v>486</v>
       </c>
       <c r="D305" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -6272,13 +6263,13 @@
         <v>99991</v>
       </c>
       <c r="B306" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C306" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D306" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -6286,13 +6277,13 @@
         <v>99992</v>
       </c>
       <c r="B307" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C307" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D307" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -6300,13 +6291,13 @@
         <v>99993</v>
       </c>
       <c r="B308" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C308" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D308" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -6314,13 +6305,13 @@
         <v>99999</v>
       </c>
       <c r="B309" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C309" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D309" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
